--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,111 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A2079-57FE-4EDA-BBB5-8A058FC78AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>portal.azure.com</t>
-  </si>
-  <si>
-    <t>URL Description</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>portal.azure.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CP-FSM-DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CP-FSM-PROD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crisplantdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crisplantfsmdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GosigerDev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IFSDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IFSPROD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imaxdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RACQ</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,87 +421,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="37.140625" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="42.425781" style="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="B3" s="4" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="B4" s="4" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A2079-57FE-4EDA-BBB5-8A058FC78AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C287C-C38A-4888-8784-4DA2D514524B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <x:sheet name="Sheet3" sheetId="6" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -27,7 +28,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>Server Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crisplantfsmdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.74 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.18 /s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RACQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.24 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.71 /s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GosigerDev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.58 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51.04 /s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IFSDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.44 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.74 /s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IFSPROD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.46 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.15 /s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imaxdev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.48 MB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.19 /s</x:t>
+  </x:si>
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -54,24 +112,6 @@
   </x:si>
   <x:si>
     <x:t>crisplantdev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crisplantfsmdev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GosigerDev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IFSDT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IFSPROD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>imaxdev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RACQ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -122,20 +162,45 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="18" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -421,48 +486,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{61D97514-0DED-4F3F-BE7F-EB4EF3458179}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:G7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2 A2:A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.570312" style="7" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="n">
+        <x:v>0.0753</x:v>
+      </x:c>
+      <x:c r="C2" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="9" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F2" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="n">
+        <x:v>0.4997</x:v>
+      </x:c>
+      <x:c r="C3" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G3" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="n">
+        <x:v>0.1853</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F4" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="7" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="n">
+        <x:v>0.2845</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="8" t="n">
+        <x:v>0.0032</x:v>
+      </x:c>
+      <x:c r="C6" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E6" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="n">
+        <x:v>0.0064</x:v>
+      </x:c>
+      <x:c r="C7" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A7" r:id="rId12"/>
+    <x:hyperlink ref="A6" r:id="rId13"/>
+    <x:hyperlink ref="A5" r:id="rId14"/>
+    <x:hyperlink ref="A2" r:id="rId15"/>
+    <x:hyperlink ref="A4" r:id="rId16"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:C4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <x:col min="2" max="2" width="37.140625" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="42.425781" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="19" style="7" customWidth="1"/>
+    <x:col min="2" max="2" width="37.140625" style="7" customWidth="1"/>
+    <x:col min="3" max="3" width="42.425781" style="7" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
+      <x:c r="A1" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>5</x:v>
+      <x:c r="A2" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" s="7" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="4" t="s"/>
+      <x:c r="B3" s="11" t="s"/>
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="4" t="s"/>
+      <x:c r="B4" s="11" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -473,7 +714,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -485,48 +726,48 @@
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="3" t="s">
-        <x:v>6</x:v>
+      <x:c r="A1" s="7" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="3" t="s">
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
     <x:row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="3" t="s">
-        <x:v>12</x:v>
+      <x:c r="A7" s="7" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="3" t="s">
-        <x:v>13</x:v>
+      <x:c r="A8" s="7" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="3" t="s">
-        <x:v>14</x:v>
+      <x:c r="A9" s="7" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075BDC7-3B4E-4E35-8571-905AA0E2BDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E5D1E7-787D-4970-AA06-D76D5AE6C366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,144 +27,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>Crisplantfsmdev</t>
   </si>
   <si>
-    <t>9.74 MB</t>
-  </si>
-  <si>
-    <t>0.18 /s</t>
-  </si>
-  <si>
     <t>RACQ</t>
   </si>
   <si>
+    <t>GosigerDev</t>
+  </si>
+  <si>
+    <t>IFSDT</t>
+  </si>
+  <si>
+    <t>IFSPROD</t>
+  </si>
+  <si>
+    <t>imaxdev</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>portal.azure.com</t>
+  </si>
+  <si>
+    <t>URL Description</t>
+  </si>
+  <si>
+    <t>CP-FSM-DT</t>
+  </si>
+  <si>
+    <t>CP-FSM-PROD</t>
+  </si>
+  <si>
+    <t>crisplantdev</t>
+  </si>
+  <si>
+    <t>CPU Utilization</t>
+  </si>
+  <si>
+    <t>Disk Bytes_Read value</t>
+  </si>
+  <si>
+    <t>Disk Bytes_Write value</t>
+  </si>
+  <si>
+    <t>Disk Operation_Read value</t>
+  </si>
+  <si>
+    <t>Disk Operation_Write value</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/CP-FSM-DT</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/eca3d354-fbd7-41fb-8552-0abe952b56ee/resourceGroups/CPPROD/providers/Microsoft.Compute/virtualMachines/CP-FSM-PROD</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/crisplantdev</t>
+  </si>
+  <si>
+    <t>CrisplantDT</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/CrisplantDT</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/Crisplantfsmdev</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/dd433125-5571-40a8-b583-ecb4e12ce4b0/resourceGroups/Gosiger/providers/Microsoft.Compute/virtualMachines/GosigerDev</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/02580fda-52a4-48aa-bd8e-530e81a4cd72/resourceGroups/IFSProv/providers/Microsoft.Compute/virtualMachines/IFSDT</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/02580fda-52a4-48aa-bd8e-530e81a4cd72/resourceGroups/IFSProv/providers/Microsoft.Compute/virtualMachines/IFSPROD</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/fd843d6a-b77e-4079-b15d-d838845cefae/resourceGroups/IMAX/providers/Microsoft.Compute/virtualMachines/imaxdev</t>
+  </si>
+  <si>
+    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/03c8e7c7-290f-4346-a90d-dfc5b6e7900a/resourceGroups/RACQ/providers/Microsoft.Compute/virtualMachines/RACQ</t>
+  </si>
+  <si>
+    <t>NetworkInTotal</t>
+  </si>
+  <si>
+    <t>NetworkOutTotal</t>
+  </si>
+  <si>
+    <t>Server_Name</t>
+  </si>
+  <si>
+    <t>Server_Name_URL</t>
+  </si>
+  <si>
+    <t>Server_Type</t>
+  </si>
+  <si>
+    <t>Server_Status</t>
+  </si>
+  <si>
+    <t>Virtual machine</t>
+  </si>
+  <si>
+    <t>Stopped (deallocated)</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>9.31 MB</t>
+  </si>
+  <si>
+    <t>0.17 /s</t>
+  </si>
+  <si>
     <t>8.24 MB</t>
   </si>
   <si>
-    <t>0.71 /s</t>
-  </si>
-  <si>
-    <t>GosigerDev</t>
-  </si>
-  <si>
-    <t>7.58 MB</t>
-  </si>
-  <si>
-    <t>51.04 /s</t>
-  </si>
-  <si>
-    <t>IFSDT</t>
-  </si>
-  <si>
-    <t>9.44 MB</t>
-  </si>
-  <si>
-    <t>6.74 /s</t>
-  </si>
-  <si>
-    <t>IFSPROD</t>
-  </si>
-  <si>
-    <t>4.46 MB</t>
-  </si>
-  <si>
-    <t>4.15 /s</t>
-  </si>
-  <si>
-    <t>imaxdev</t>
-  </si>
-  <si>
-    <t>7.48 MB</t>
+    <t>59.82 /s</t>
+  </si>
+  <si>
+    <t>3.55 MB</t>
+  </si>
+  <si>
+    <t>7.82 /s</t>
+  </si>
+  <si>
+    <t>3.65 MB</t>
+  </si>
+  <si>
+    <t>245 /s</t>
+  </si>
+  <si>
+    <t>8.25 MB</t>
   </si>
   <si>
     <t>0.19 /s</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>portal.azure.com</t>
-  </si>
-  <si>
-    <t>URL Description</t>
-  </si>
-  <si>
-    <t>CP-FSM-DT</t>
-  </si>
-  <si>
-    <t>CP-FSM-PROD</t>
-  </si>
-  <si>
-    <t>crisplantdev</t>
-  </si>
-  <si>
-    <t>CPU Utilization</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Disk Bytes_Read value</t>
-  </si>
-  <si>
-    <t>Disk Bytes_Write value</t>
-  </si>
-  <si>
-    <t>Disk Operation_Read value</t>
-  </si>
-  <si>
-    <t>Disk Operation_Write value</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/CP-FSM-DT</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/eca3d354-fbd7-41fb-8552-0abe952b56ee/resourceGroups/CPPROD/providers/Microsoft.Compute/virtualMachines/CP-FSM-PROD</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/crisplantdev</t>
-  </si>
-  <si>
-    <t>CrisplantDT</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/CrisplantDT</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/26c742ab-513b-4a0e-b6fa-af9b7a7cd9e7/resourceGroups/CPDEVTEST/providers/Microsoft.Compute/virtualMachines/Crisplantfsmdev</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/dd433125-5571-40a8-b583-ecb4e12ce4b0/resourceGroups/Gosiger/providers/Microsoft.Compute/virtualMachines/GosigerDev</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/02580fda-52a4-48aa-bd8e-530e81a4cd72/resourceGroups/IFSProv/providers/Microsoft.Compute/virtualMachines/IFSDT</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/02580fda-52a4-48aa-bd8e-530e81a4cd72/resourceGroups/IFSProv/providers/Microsoft.Compute/virtualMachines/IFSPROD</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/fd843d6a-b77e-4079-b15d-d838845cefae/resourceGroups/IMAX/providers/Microsoft.Compute/virtualMachines/imaxdev</t>
-  </si>
-  <si>
-    <t>#@fsmcrisplantoutlook.onmicrosoft.com/resource/subscriptions/03c8e7c7-290f-4346-a90d-dfc5b6e7900a/resourceGroups/RACQ/providers/Microsoft.Compute/virtualMachines/RACQ</t>
+    <t>6.78 MB</t>
+  </si>
+  <si>
+    <t>0.6 /s</t>
   </si>
 </sst>
 </file>
@@ -215,7 +233,7 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D97514-0DED-4F3F-BE7F-EB4EF3458179}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="F1" sqref="F1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,185 +525,203 @@
     <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
+      <c r="B1" t="s">
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
-        <v>7.5300000000000006E-2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.18529999999999999</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.28449999999999998</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <v>3.2000000000000002E-3</v>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6.4000000000000003E-3</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -716,24 +752,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,115 +785,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E1" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="F1" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="G1" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="H1" s="6">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730BE752-C86D-4ABC-92A3-203A9FD9023E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B88FF-1DEF-49C9-AF29-805D885767EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="11" r:id="rId1"/>
-    <sheet name="Azure_Monitoring_Log" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId2"/>
+    <sheet name="Azure_Monitoring_Log" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="262">
   <si>
     <t>Name</t>
   </si>
@@ -71,12 +72,6 @@
     <t>Server_Name</t>
   </si>
   <si>
-    <t>Server_Name_URL</t>
-  </si>
-  <si>
-    <t>Server_Type</t>
-  </si>
-  <si>
     <t>Server_Status</t>
   </si>
   <si>
@@ -89,12 +84,24 @@
     <t>Checked At</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Threshold_Limit</t>
   </si>
   <si>
+    <t>Crisplantfsmdev</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>GosigerDev</t>
+  </si>
+  <si>
+    <t>10.96 MB</t>
+  </si>
+  <si>
+    <t>8.05 MB</t>
+  </si>
+  <si>
     <t>CP-FSM-DT</t>
   </si>
   <si>
@@ -110,15 +117,6 @@
     <t>CrisplantDT</t>
   </si>
   <si>
-    <t>Crisplantfsmdev</t>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>GosigerDev</t>
-  </si>
-  <si>
     <t>IFSDT</t>
   </si>
   <si>
@@ -131,43 +129,691 @@
     <t>RACQ</t>
   </si>
   <si>
-    <t>10.96 MB</t>
-  </si>
-  <si>
-    <t>52.72 MB</t>
-  </si>
-  <si>
-    <t>41.16 MB</t>
-  </si>
-  <si>
-    <t>244.59 MB</t>
-  </si>
-  <si>
-    <t>0.03 /s</t>
-  </si>
-  <si>
-    <t>3.46 /s</t>
+    <t>79.62 MB</t>
+  </si>
+  <si>
+    <t>149.63 MB</t>
+  </si>
+  <si>
+    <t>97.7 MB</t>
+  </si>
+  <si>
+    <t>295.62 MB</t>
+  </si>
+  <si>
+    <t>0.27 /s</t>
+  </si>
+  <si>
+    <t>4.23 /s</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>7.99 MB</t>
+  </si>
+  <si>
+    <t>27.71 MB</t>
+  </si>
+  <si>
+    <t>15.95 GB</t>
+  </si>
+  <si>
+    <t>73.89 GB</t>
+  </si>
+  <si>
+    <t>76.63 /s</t>
+  </si>
+  <si>
+    <t>458.55 /s</t>
+  </si>
+  <si>
+    <t>5.15 MB</t>
+  </si>
+  <si>
+    <t>6.36 MB</t>
+  </si>
+  <si>
+    <t>448.09 MB</t>
+  </si>
+  <si>
+    <t>735.29 MB</t>
+  </si>
+  <si>
+    <t>6.2 /s</t>
+  </si>
+  <si>
+    <t>16.1 /s</t>
+  </si>
+  <si>
+    <t>3.92 MB</t>
+  </si>
+  <si>
+    <t>2.99 MB</t>
+  </si>
+  <si>
+    <t>6.64 GB</t>
+  </si>
+  <si>
+    <t>300.08 MB</t>
+  </si>
+  <si>
+    <t>228.76 /s</t>
+  </si>
+  <si>
+    <t>9.64 /s</t>
   </si>
   <si>
     <t>Fine</t>
   </si>
   <si>
-    <t>8.05 MB</t>
+    <t>8.17 MB</t>
+  </si>
+  <si>
+    <t>27.5 MB</t>
+  </si>
+  <si>
+    <t>280.32 MB</t>
+  </si>
+  <si>
+    <t>454.76 MB</t>
+  </si>
+  <si>
+    <t>0.18 /s</t>
+  </si>
+  <si>
+    <t>2.46 /s</t>
+  </si>
+  <si>
+    <t>10.4 MB</t>
+  </si>
+  <si>
+    <t>23.46 MB</t>
+  </si>
+  <si>
+    <t>287.32 MB</t>
+  </si>
+  <si>
+    <t>425.04 MB</t>
+  </si>
+  <si>
+    <t>0.73 /s</t>
+  </si>
+  <si>
+    <t>3.05 /s</t>
+  </si>
+  <si>
+    <t>79.28 MB</t>
+  </si>
+  <si>
+    <t>146.2 MB</t>
+  </si>
+  <si>
+    <t>96.52 MB</t>
+  </si>
+  <si>
+    <t>295.18 MB</t>
+  </si>
+  <si>
+    <t>8 MB</t>
+  </si>
+  <si>
+    <t>15.96 GB</t>
+  </si>
+  <si>
+    <t>72.56 GB</t>
+  </si>
+  <si>
+    <t>76.14 /s</t>
+  </si>
+  <si>
+    <t>462.68 /s</t>
+  </si>
+  <si>
+    <t>5.19 MB</t>
+  </si>
+  <si>
+    <t>6.41 MB</t>
+  </si>
+  <si>
+    <t>443.85 MB</t>
+  </si>
+  <si>
+    <t>774.94 MB</t>
+  </si>
+  <si>
+    <t>6.18 /s</t>
+  </si>
+  <si>
+    <t>16.02 /s</t>
+  </si>
+  <si>
+    <t>3.87 MB</t>
+  </si>
+  <si>
+    <t>2.73 MB</t>
+  </si>
+  <si>
+    <t>6.67 GB</t>
+  </si>
+  <si>
+    <t>301.38 MB</t>
+  </si>
+  <si>
+    <t>229.88 /s</t>
+  </si>
+  <si>
+    <t>9.72 /s</t>
+  </si>
+  <si>
+    <t>8.16 MB</t>
+  </si>
+  <si>
+    <t>27.49 MB</t>
+  </si>
+  <si>
+    <t>452.66 MB</t>
+  </si>
+  <si>
+    <t>0.17 /s</t>
+  </si>
+  <si>
+    <t>2.45 /s</t>
+  </si>
+  <si>
+    <t>23.47 MB</t>
+  </si>
+  <si>
+    <t>264.12 MB</t>
+  </si>
+  <si>
+    <t>422.96 MB</t>
+  </si>
+  <si>
+    <t>81.72 MB</t>
+  </si>
+  <si>
+    <t>149.32 MB</t>
+  </si>
+  <si>
+    <t>5.23 MB</t>
+  </si>
+  <si>
+    <t>6.44 MB</t>
+  </si>
+  <si>
+    <t>438.37 MB</t>
+  </si>
+  <si>
+    <t>770.04 MB</t>
+  </si>
+  <si>
+    <t>6.17 /s</t>
+  </si>
+  <si>
+    <t>16.04 /s</t>
+  </si>
+  <si>
+    <t>3.96 MB</t>
+  </si>
+  <si>
+    <t>2.75 MB</t>
+  </si>
+  <si>
+    <t>6.7 GB</t>
+  </si>
+  <si>
+    <t>468.44 MB</t>
+  </si>
+  <si>
+    <t>231.18 /s</t>
+  </si>
+  <si>
+    <t>10.11 /s</t>
+  </si>
+  <si>
+    <t>306.54 MB</t>
+  </si>
+  <si>
+    <t>456.85 MB</t>
+  </si>
+  <si>
+    <t>10.43 MB</t>
+  </si>
+  <si>
+    <t>23.5 MB</t>
+  </si>
+  <si>
+    <t>423.86 MB</t>
+  </si>
+  <si>
+    <t>0.67 /s</t>
+  </si>
+  <si>
+    <t>81.65 MB</t>
+  </si>
+  <si>
+    <t>147.87 MB</t>
+  </si>
+  <si>
+    <t>97.62 MB</t>
+  </si>
+  <si>
+    <t>300.98 MB</t>
+  </si>
+  <si>
+    <t>0.26 /s</t>
+  </si>
+  <si>
+    <t>4.25 /s</t>
+  </si>
+  <si>
+    <t>27.79 MB</t>
+  </si>
+  <si>
+    <t>71.18 GB</t>
+  </si>
+  <si>
+    <t>76.15 /s</t>
+  </si>
+  <si>
+    <t>470.79 /s</t>
+  </si>
+  <si>
+    <t>448.51 MB</t>
+  </si>
+  <si>
+    <t>796.32 MB</t>
+  </si>
+  <si>
+    <t>16.29 /s</t>
+  </si>
+  <si>
+    <t>8.15 MB</t>
+  </si>
+  <si>
+    <t>27.48 MB</t>
+  </si>
+  <si>
+    <t>458.55 MB</t>
+  </si>
+  <si>
+    <t>10.33 MB</t>
+  </si>
+  <si>
+    <t>23.38 MB</t>
+  </si>
+  <si>
+    <t>287.35 MB</t>
+  </si>
+  <si>
+    <t>429.87 MB</t>
+  </si>
+  <si>
+    <t>0.72 /s</t>
+  </si>
+  <si>
+    <t>3.06 /s</t>
+  </si>
+  <si>
+    <t>81.58 MB</t>
+  </si>
+  <si>
+    <t>145.16 MB</t>
+  </si>
+  <si>
+    <t>95.26 MB</t>
+  </si>
+  <si>
+    <t>297.97 MB</t>
+  </si>
+  <si>
+    <t>4.26 /s</t>
+  </si>
+  <si>
+    <t>8.01 MB</t>
   </si>
   <si>
     <t>27.81 MB</t>
   </si>
   <si>
-    <t>11.93 GB</t>
-  </si>
-  <si>
-    <t>60.78 GB</t>
-  </si>
-  <si>
-    <t>49.49 /s</t>
-  </si>
-  <si>
-    <t>503.64 /s</t>
+    <t>69.39 GB</t>
+  </si>
+  <si>
+    <t>76.16 /s</t>
+  </si>
+  <si>
+    <t>479.57 /s</t>
+  </si>
+  <si>
+    <t>5.26 MB</t>
+  </si>
+  <si>
+    <t>6.48 MB</t>
+  </si>
+  <si>
+    <t>467.03 MB</t>
+  </si>
+  <si>
+    <t>794.89 MB</t>
+  </si>
+  <si>
+    <t>6.83 /s</t>
+  </si>
+  <si>
+    <t>16.28 /s</t>
+  </si>
+  <si>
+    <t>4.02 MB</t>
+  </si>
+  <si>
+    <t>2.8 MB</t>
+  </si>
+  <si>
+    <t>6.77 GB</t>
+  </si>
+  <si>
+    <t>465.11 MB</t>
+  </si>
+  <si>
+    <t>233.62 /s</t>
+  </si>
+  <si>
+    <t>10.12 /s</t>
+  </si>
+  <si>
+    <t>10.44 MB</t>
+  </si>
+  <si>
+    <t>23.52 MB</t>
+  </si>
+  <si>
+    <t>97.65 MB</t>
+  </si>
+  <si>
+    <t>300.17 MB</t>
+  </si>
+  <si>
+    <t>0.39 /s</t>
+  </si>
+  <si>
+    <t>4.24 /s</t>
+  </si>
+  <si>
+    <t>8.03 MB</t>
+  </si>
+  <si>
+    <t>27.77 MB</t>
+  </si>
+  <si>
+    <t>15.85 GB</t>
+  </si>
+  <si>
+    <t>68.58 GB</t>
+  </si>
+  <si>
+    <t>73.27 /s</t>
+  </si>
+  <si>
+    <t>483.62 /s</t>
+  </si>
+  <si>
+    <t>5.14 MB</t>
+  </si>
+  <si>
+    <t>6.55 MB</t>
+  </si>
+  <si>
+    <t>467.2 MB</t>
+  </si>
+  <si>
+    <t>618.64 MB</t>
+  </si>
+  <si>
+    <t>6.8 /s</t>
+  </si>
+  <si>
+    <t>15.86 /s</t>
+  </si>
+  <si>
+    <t>4.03 MB</t>
+  </si>
+  <si>
+    <t>6.78 GB</t>
+  </si>
+  <si>
+    <t>466.92 MB</t>
+  </si>
+  <si>
+    <t>233.68 /s</t>
+  </si>
+  <si>
+    <t>10.13 /s</t>
+  </si>
+  <si>
+    <t>457.62 MB</t>
+  </si>
+  <si>
+    <t>10.46 MB</t>
+  </si>
+  <si>
+    <t>23.54 MB</t>
+  </si>
+  <si>
+    <t>424.52 MB</t>
+  </si>
+  <si>
+    <t>81.52 MB</t>
+  </si>
+  <si>
+    <t>143.24 MB</t>
+  </si>
+  <si>
+    <t>97.48 MB</t>
+  </si>
+  <si>
+    <t>298 MB</t>
+  </si>
+  <si>
+    <t>471.81 MB</t>
+  </si>
+  <si>
+    <t>800.06 MB</t>
+  </si>
+  <si>
+    <t>6.79 /s</t>
+  </si>
+  <si>
+    <t>6.92 GB</t>
+  </si>
+  <si>
+    <t>474.82 MB</t>
+  </si>
+  <si>
+    <t>234.6 /s</t>
+  </si>
+  <si>
+    <t>282.44 MB</t>
+  </si>
+  <si>
+    <t>457.57 MB</t>
+  </si>
+  <si>
+    <t>10.47 MB</t>
+  </si>
+  <si>
+    <t>23.56 MB</t>
+  </si>
+  <si>
+    <t>423.38 MB</t>
+  </si>
+  <si>
+    <t>3.07 /s</t>
+  </si>
+  <si>
+    <t>81.56 MB</t>
+  </si>
+  <si>
+    <t>143.26 MB</t>
+  </si>
+  <si>
+    <t>93.36 MB</t>
+  </si>
+  <si>
+    <t>295.85 MB</t>
+  </si>
+  <si>
+    <t>8.04 MB</t>
+  </si>
+  <si>
+    <t>15.72 GB</t>
+  </si>
+  <si>
+    <t>68.05 GB</t>
+  </si>
+  <si>
+    <t>69.15 /s</t>
+  </si>
+  <si>
+    <t>485.87 /s</t>
+  </si>
+  <si>
+    <t>5.32 MB</t>
+  </si>
+  <si>
+    <t>6.57 MB</t>
+  </si>
+  <si>
+    <t>466.77 MB</t>
+  </si>
+  <si>
+    <t>795.24 MB</t>
+  </si>
+  <si>
+    <t>4.08 MB</t>
+  </si>
+  <si>
+    <t>6.8 GB</t>
+  </si>
+  <si>
+    <t>470.51 MB</t>
+  </si>
+  <si>
+    <t>234.62 /s</t>
+  </si>
+  <si>
+    <t>10.1 /s</t>
+  </si>
+  <si>
+    <t>81.59 MB</t>
+  </si>
+  <si>
+    <t>143.31 MB</t>
+  </si>
+  <si>
+    <t>296.1 MB</t>
+  </si>
+  <si>
+    <t>8.02 MB</t>
+  </si>
+  <si>
+    <t>27.78 MB</t>
+  </si>
+  <si>
+    <t>15.63 GB</t>
+  </si>
+  <si>
+    <t>66.52 GB</t>
+  </si>
+  <si>
+    <t>67.92 /s</t>
+  </si>
+  <si>
+    <t>489.36 /s</t>
+  </si>
+  <si>
+    <t>5.35 MB</t>
+  </si>
+  <si>
+    <t>6.58 MB</t>
+  </si>
+  <si>
+    <t>459.23 MB</t>
+  </si>
+  <si>
+    <t>790.99 MB</t>
+  </si>
+  <si>
+    <t>6.78 /s</t>
+  </si>
+  <si>
+    <t>4.26 MB</t>
+  </si>
+  <si>
+    <t>2.95 MB</t>
+  </si>
+  <si>
+    <t>6.83 GB</t>
+  </si>
+  <si>
+    <t>470.43 MB</t>
+  </si>
+  <si>
+    <t>235.67 /s</t>
+  </si>
+  <si>
+    <t>8.19 MB</t>
+  </si>
+  <si>
+    <t>27.52 MB</t>
+  </si>
+  <si>
+    <t>453.3 MB</t>
+  </si>
+  <si>
+    <t>10.49 MB</t>
+  </si>
+  <si>
+    <t>23.59 MB</t>
+  </si>
+  <si>
+    <t>263.08 MB</t>
+  </si>
+  <si>
+    <t>423.01 MB</t>
+  </si>
+  <si>
+    <t>473.76 MB</t>
+  </si>
+  <si>
+    <t>801.62 MB</t>
+  </si>
+  <si>
+    <t>4.47 MB</t>
+  </si>
+  <si>
+    <t>3.09 MB</t>
+  </si>
+  <si>
+    <t>470.07 MB</t>
+  </si>
+  <si>
+    <t>235.69 /s</t>
+  </si>
+  <si>
+    <t>307.59 MB</t>
+  </si>
+  <si>
+    <t>457.65 MB</t>
+  </si>
+  <si>
+    <t>287.34 MB</t>
+  </si>
+  <si>
+    <t>430.72 MB</t>
+  </si>
+  <si>
+    <t>0.66 /s</t>
   </si>
 </sst>
 </file>
@@ -200,13 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,105 +1167,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83B3495-1552-4419-820B-A97AC3E82D33}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43864.44127314815</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43864.441296296296</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43864.441331018519</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>43864.437430555554</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43864.437442129631</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43864.4374537037</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43864.437465277777</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43864.43408564815</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
@@ -703,10 +1426,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5564716-E064-4BD1-B298-6169877ABA5B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0904079-205D-45A4-AC1C-11F8F03898FC}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -719,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -743,21 +1530,21 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5">
         <v>0.1</v>
@@ -765,10 +1552,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5">
         <v>0.1</v>
@@ -776,10 +1563,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="L4" s="5">
         <v>0.1</v>
@@ -787,10 +1574,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="5">
         <v>0.1</v>
@@ -798,37 +1585,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>7.3700000000000002E-2</v>
+        <v>0.1031</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="8">
+        <v>43864.501875000002</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" s="8">
-        <v>43863.96020833333</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="L6" s="5">
         <v>0.1</v>
@@ -836,327 +1623,2648 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>0.13300000000000001</v>
+        <v>0.1855</v>
       </c>
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
       <c r="J7" s="8">
-        <v>43863.960474537038</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>43864.50199074074</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L7" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43864.50209490741</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="8">
+        <v>43864.502187500002</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="L9" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43864.502303240741</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="L10" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="8">
+        <v>43864.502430555556</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L15" s="5"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="J37" s="8"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L71" s="5"/>
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.1031</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="8">
+        <v>43864.502534722225</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43864.502627314818</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.26229999999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43864.502708333333</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="8">
+        <v>43864.502789351849</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="8">
+        <v>43864.502881944441</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="8">
+        <v>43864.502962962964</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.1031</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="8">
+        <v>43864.50304398148</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="8">
+        <v>43864.503125000003</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.26229999999999998</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="8">
+        <v>43864.503217592595</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="8">
+        <v>43864.503287037034</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="8">
+        <v>43864.503379629627</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="8">
+        <v>43864.503460648149</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="8">
+        <v>43864.503541666665</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="8">
+        <v>43864.503611111111</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="8">
+        <v>43864.503692129627</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" s="8">
+        <v>43864.50377314815</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="8">
+        <v>43864.503854166665</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="8">
+        <v>43864.503946759258</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="8">
+        <v>43864.504027777781</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J47" s="8">
+        <v>43864.504108796296</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.2621</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="8">
+        <v>43864.504201388889</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" t="s">
+        <v>163</v>
+      </c>
+      <c r="J49" s="8">
+        <v>43864.504270833335</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="8">
+        <v>43864.504340277781</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51" s="8">
+        <v>43864.504421296297</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56" s="8">
+        <v>43864.504513888889</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J57" s="8">
+        <v>43864.504594907405</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.2621</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" t="s">
+        <v>181</v>
+      </c>
+      <c r="J58" s="8">
+        <v>43864.504675925928</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="8">
+        <v>43864.50476851852</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="8">
+        <v>43864.504849537036</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" s="8">
+        <v>43864.504930555559</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" t="s">
+        <v>125</v>
+      </c>
+      <c r="J66" s="8">
+        <v>43864.504999999997</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" t="s">
+        <v>174</v>
+      </c>
+      <c r="I67" t="s">
+        <v>175</v>
+      </c>
+      <c r="J67" s="8">
+        <v>43864.50508101852</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.2621</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68" s="8">
+        <v>43864.505162037036</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69" s="8">
+        <v>43864.505243055559</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" t="s">
+        <v>201</v>
+      </c>
+      <c r="G70" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="8">
+        <v>43864.505312499998</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" t="s">
+        <v>206</v>
+      </c>
+      <c r="J71" s="8">
+        <v>43864.505393518521</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="8">
+        <v>43864.505474537036</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="D77" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" t="s">
+        <v>213</v>
+      </c>
+      <c r="H77" t="s">
+        <v>214</v>
+      </c>
+      <c r="I77" t="s">
+        <v>215</v>
+      </c>
+      <c r="J77" s="8">
+        <v>43864.505555555559</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.26229999999999998</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" t="s">
+        <v>217</v>
+      </c>
+      <c r="F78" t="s">
+        <v>218</v>
+      </c>
+      <c r="G78" t="s">
+        <v>219</v>
+      </c>
+      <c r="H78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" s="8">
+        <v>43864.505636574075</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" t="s">
+        <v>222</v>
+      </c>
+      <c r="H79" t="s">
+        <v>223</v>
+      </c>
+      <c r="I79" t="s">
+        <v>224</v>
+      </c>
+      <c r="J79" s="8">
+        <v>43864.50571759259</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="7">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" t="s">
+        <v>202</v>
+      </c>
+      <c r="H80" t="s">
+        <v>63</v>
+      </c>
+      <c r="I80" t="s">
+        <v>64</v>
+      </c>
+      <c r="J80" s="8">
+        <v>43864.505810185183</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="D81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J81" s="8">
+        <v>43864.505891203706</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" t="s">
+        <v>227</v>
+      </c>
+      <c r="H86" t="s">
+        <v>168</v>
+      </c>
+      <c r="I86" t="s">
+        <v>146</v>
+      </c>
+      <c r="J86" s="8">
+        <v>43864.505983796298</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="D87" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" t="s">
+        <v>230</v>
+      </c>
+      <c r="G87" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" t="s">
+        <v>232</v>
+      </c>
+      <c r="I87" t="s">
+        <v>233</v>
+      </c>
+      <c r="J87" s="8">
+        <v>43864.506064814814</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="D88" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" t="s">
+        <v>235</v>
+      </c>
+      <c r="F88" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" t="s">
+        <v>238</v>
+      </c>
+      <c r="I88" t="s">
+        <v>157</v>
+      </c>
+      <c r="J88" s="8">
+        <v>43864.506145833337</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="7">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" t="s">
+        <v>241</v>
+      </c>
+      <c r="G89" t="s">
+        <v>242</v>
+      </c>
+      <c r="H89" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89" t="s">
+        <v>224</v>
+      </c>
+      <c r="J89" s="8">
+        <v>43864.506215277775</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>244</v>
+      </c>
+      <c r="E90" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" t="s">
+        <v>246</v>
+      </c>
+      <c r="H90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I90" t="s">
+        <v>96</v>
+      </c>
+      <c r="J90" s="8">
+        <v>43864.506307870368</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L90">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="D91" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91" t="s">
+        <v>141</v>
+      </c>
+      <c r="J91" s="8">
+        <v>43864.506388888891</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L91">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" t="s">
+        <v>226</v>
+      </c>
+      <c r="F96" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" t="s">
+        <v>227</v>
+      </c>
+      <c r="H96" t="s">
+        <v>168</v>
+      </c>
+      <c r="I96" t="s">
+        <v>146</v>
+      </c>
+      <c r="J96" s="8">
+        <v>43864.506469907406</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L96">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="D97" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" t="s">
+        <v>230</v>
+      </c>
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>232</v>
+      </c>
+      <c r="I97" t="s">
+        <v>233</v>
+      </c>
+      <c r="J97" s="8">
+        <v>43864.506550925929</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="7">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" t="s">
+        <v>251</v>
+      </c>
+      <c r="G98" t="s">
+        <v>252</v>
+      </c>
+      <c r="H98" t="s">
+        <v>156</v>
+      </c>
+      <c r="I98" t="s">
+        <v>157</v>
+      </c>
+      <c r="J98" s="8">
+        <v>43864.506631944445</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="7">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" t="s">
+        <v>241</v>
+      </c>
+      <c r="G99" t="s">
+        <v>255</v>
+      </c>
+      <c r="H99" t="s">
+        <v>256</v>
+      </c>
+      <c r="I99" t="s">
+        <v>113</v>
+      </c>
+      <c r="J99" s="8">
+        <v>43864.506701388891</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="7">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>245</v>
+      </c>
+      <c r="F100" t="s">
+        <v>257</v>
+      </c>
+      <c r="G100" t="s">
+        <v>258</v>
+      </c>
+      <c r="H100" t="s">
+        <v>63</v>
+      </c>
+      <c r="I100" t="s">
+        <v>64</v>
+      </c>
+      <c r="J100" s="8">
+        <v>43864.506793981483</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="7">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="D101" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" t="s">
+        <v>248</v>
+      </c>
+      <c r="F101" t="s">
+        <v>259</v>
+      </c>
+      <c r="G101" t="s">
+        <v>260</v>
+      </c>
+      <c r="H101" t="s">
+        <v>261</v>
+      </c>
+      <c r="I101" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" s="8">
+        <v>43864.506886574076</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0852F23A-FF01-4DD9-A1C4-B99A2FB3CF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9872F5-327A-45D8-ADFE-4EE34297ED87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>CP-FSM-DT</t>
   </si>
   <si>
@@ -133,130 +127,214 @@
     <t>RACQ</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>61.65 MB</t>
+  </si>
+  <si>
+    <t>130.85 MB</t>
+  </si>
+  <si>
+    <t>95.15 MB</t>
+  </si>
+  <si>
+    <t>285.27 MB</t>
+  </si>
+  <si>
+    <t>0.13 /s</t>
+  </si>
+  <si>
+    <t>4.26 /s</t>
+  </si>
+  <si>
+    <t>10.39 MB</t>
+  </si>
+  <si>
+    <t>30.59 MB</t>
+  </si>
+  <si>
+    <t>16.75 GB</t>
+  </si>
+  <si>
+    <t>81.74 GB</t>
+  </si>
+  <si>
+    <t>80.21 /s</t>
+  </si>
+  <si>
+    <t>446.43 /s</t>
+  </si>
+  <si>
     <t>Stop</t>
   </si>
   <si>
-    <t>8.76 MB</t>
-  </si>
-  <si>
-    <t>3.07 /s</t>
-  </si>
-  <si>
-    <t>10.08 /s</t>
-  </si>
-  <si>
-    <t>2.52 /s</t>
-  </si>
-  <si>
-    <t>Disk Read Bytes (Sum)Disk Read Bytes (Sum)Disk Read Bytes (Sum)ifsprodifsprodifsprod6.34 GBDisk Write Bytes (Sum)Disk Write Bytes (Sum)Disk Write Bytes (Sum)ifsprodifsprodifsprod457.73 MB</t>
-  </si>
-  <si>
-    <t>457.73 MB</t>
-  </si>
-  <si>
-    <t>6.34 GB</t>
-  </si>
-  <si>
-    <t>215.69 /s</t>
-  </si>
-  <si>
-    <t>28.19 MB</t>
-  </si>
-  <si>
-    <t>302.4 MB</t>
-  </si>
-  <si>
-    <t>467.74 MB</t>
-  </si>
-  <si>
-    <t>0.17 /s</t>
-  </si>
-  <si>
-    <t>5.24 MB</t>
-  </si>
-  <si>
-    <t>18.96 MB</t>
-  </si>
-  <si>
-    <t>275.99 MB</t>
-  </si>
-  <si>
-    <t>438.28 MB</t>
-  </si>
-  <si>
-    <t>0.63 /s</t>
-  </si>
-  <si>
-    <t>17.39 MB</t>
-  </si>
-  <si>
-    <t>64.53 MB</t>
-  </si>
-  <si>
-    <t>48.52 MB</t>
-  </si>
-  <si>
-    <t>288.13 MB</t>
-  </si>
-  <si>
-    <t>0.06 /s</t>
-  </si>
-  <si>
-    <t>3.99 /s</t>
-  </si>
-  <si>
-    <t>22.64 MB</t>
-  </si>
-  <si>
-    <t>65.54 MB</t>
-  </si>
-  <si>
-    <t>48.51 MB</t>
-  </si>
-  <si>
-    <t>288.31 MB</t>
-  </si>
-  <si>
-    <t>0.05 /s</t>
-  </si>
-  <si>
-    <t>4 /s</t>
-  </si>
-  <si>
-    <t>8.79 MB</t>
-  </si>
-  <si>
-    <t>28.56 MB</t>
-  </si>
-  <si>
-    <t>17.67 GB</t>
-  </si>
-  <si>
-    <t>81.24 GB</t>
-  </si>
-  <si>
-    <t>118.5 /s</t>
-  </si>
-  <si>
-    <t>409.79 /s</t>
-  </si>
-  <si>
-    <t>8.45 MB</t>
-  </si>
-  <si>
-    <t>8.2 MB</t>
-  </si>
-  <si>
-    <t>470.33 MB</t>
-  </si>
-  <si>
-    <t>878.86 MB</t>
-  </si>
-  <si>
-    <t>6.91 /s</t>
-  </si>
-  <si>
-    <t>16.73 /s</t>
+    <t>6.26 MB</t>
+  </si>
+  <si>
+    <t>5.83 MB</t>
+  </si>
+  <si>
+    <t>474.27 MB</t>
+  </si>
+  <si>
+    <t>926.79 MB</t>
+  </si>
+  <si>
+    <t>6.88 /s</t>
+  </si>
+  <si>
+    <t>17.01 /s</t>
+  </si>
+  <si>
+    <t>3.32 MB</t>
+  </si>
+  <si>
+    <t>1.35 MB</t>
+  </si>
+  <si>
+    <t>7.21 GB</t>
+  </si>
+  <si>
+    <t>572.6 MB</t>
+  </si>
+  <si>
+    <t>241.78 /s</t>
+  </si>
+  <si>
+    <t>10.29 /s</t>
+  </si>
+  <si>
+    <t>15.46 MB</t>
+  </si>
+  <si>
+    <t>28.52 MB</t>
+  </si>
+  <si>
+    <t>343.46 MB</t>
+  </si>
+  <si>
+    <t>745.15 MB</t>
+  </si>
+  <si>
+    <t>0.45 /s</t>
+  </si>
+  <si>
+    <t>3.42 /s</t>
+  </si>
+  <si>
+    <t>4.71 MB</t>
+  </si>
+  <si>
+    <t>17.89 MB</t>
+  </si>
+  <si>
+    <t>275.08 MB</t>
+  </si>
+  <si>
+    <t>426.97 MB</t>
+  </si>
+  <si>
+    <t>0.7 /s</t>
+  </si>
+  <si>
+    <t>2.97 /s</t>
+  </si>
+  <si>
+    <t>60.59 MB</t>
+  </si>
+  <si>
+    <t>128.66 MB</t>
+  </si>
+  <si>
+    <t>97.27 MB</t>
+  </si>
+  <si>
+    <t>289.73 MB</t>
+  </si>
+  <si>
+    <t>4.29 /s</t>
+  </si>
+  <si>
+    <t>10.44 MB</t>
+  </si>
+  <si>
+    <t>30.63 MB</t>
+  </si>
+  <si>
+    <t>16.72 GB</t>
+  </si>
+  <si>
+    <t>80.62 GB</t>
+  </si>
+  <si>
+    <t>81.6 /s</t>
+  </si>
+  <si>
+    <t>444.77 /s</t>
+  </si>
+  <si>
+    <t>6.31 MB</t>
+  </si>
+  <si>
+    <t>5.88 MB</t>
+  </si>
+  <si>
+    <t>467.3 MB</t>
+  </si>
+  <si>
+    <t>921.52 MB</t>
+  </si>
+  <si>
+    <t>6.9 /s</t>
+  </si>
+  <si>
+    <t>17.03 /s</t>
+  </si>
+  <si>
+    <t>3.33 MB</t>
+  </si>
+  <si>
+    <t>7.15 GB</t>
+  </si>
+  <si>
+    <t>567.49 MB</t>
+  </si>
+  <si>
+    <t>239.65 /s</t>
+  </si>
+  <si>
+    <t>10.26 /s</t>
+  </si>
+  <si>
+    <t>14.93 MB</t>
+  </si>
+  <si>
+    <t>28.4 MB</t>
+  </si>
+  <si>
+    <t>337.85 MB</t>
+  </si>
+  <si>
+    <t>740.35 MB</t>
+  </si>
+  <si>
+    <t>0.44 /s</t>
+  </si>
+  <si>
+    <t>3.38 /s</t>
+  </si>
+  <si>
+    <t>4.72 MB</t>
+  </si>
+  <si>
+    <t>17.9 MB</t>
+  </si>
+  <si>
+    <t>426.78 MB</t>
+  </si>
+  <si>
+    <t>2.98 /s</t>
   </si>
 </sst>
 </file>
@@ -328,13 +406,23 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -345,6 +433,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{715A8EF6-A505-4210-B066-D832C9256031}" name="Table1" displayName="Table1" ref="A1:L81" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L81" xr:uid="{55C6404D-BE9A-4778-95AA-177B65E9707E}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{9A7B1D62-DD64-4DB1-B5F6-3158A1BFBBD2}" name="Server_Name"/>
+    <tableColumn id="2" xr3:uid="{E38D28C9-32E7-42D2-8010-278DF4ACA222}" name="Server_Status"/>
+    <tableColumn id="3" xr3:uid="{D9F0E434-2358-4093-AB0E-5A3B294D9EF5}" name="CPU Utilization" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{06F24F33-243B-4453-B923-C5C36813A3F5}" name="NetworkInTotal"/>
+    <tableColumn id="5" xr3:uid="{280257BE-CCA6-4CEF-9A0A-ABB95616AA9C}" name="NetworkOutTotal"/>
+    <tableColumn id="6" xr3:uid="{90A450DF-4F86-4836-B83F-C18E0B0D4DA7}" name="Disk Bytes_Read value"/>
+    <tableColumn id="7" xr3:uid="{6988EAE1-FBDE-492D-A21F-B4530A75A227}" name="Disk Bytes_Write value"/>
+    <tableColumn id="8" xr3:uid="{7B53895D-E29E-41A3-8C9A-B3E040444952}" name="Disk Operation_Read value"/>
+    <tableColumn id="9" xr3:uid="{DFCD698E-0789-4746-9289-53CD5484BE1C}" name="Disk Operation_Write value"/>
+    <tableColumn id="10" xr3:uid="{C56B5794-A865-4171-A46F-77AA07519B21}" name="Checked At" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{0BC98B91-BA1B-45CE-9DB5-B6BFDBECD97B}" name="Status"/>
+    <tableColumn id="12" xr3:uid="{D4846CB1-A5B2-4D42-BD29-57A320C3362E}" name="Threshold_Limit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,11 +719,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83B3495-1552-4419-820B-A97AC3E82D33}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,7 +758,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
       <c r="D2" s="8">
-        <v>43864.637291666666</v>
+        <v>43865.422372685185</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -669,7 +776,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
       <c r="D3" s="8">
-        <v>43864.637326388889</v>
+        <v>43865.422523148147</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -687,7 +794,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>43864.637326388889</v>
+        <v>43865.422546296293</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -705,7 +812,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>43864.637337962966</v>
+        <v>43865.42255787037</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -720,14 +827,9 @@
         <v>19</v>
       </c>
       <c r="C6" s="7">
-        <v>7.2300000000000003E-2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>43864.637361111112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
+        <v>7.6E-3</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,93 +838,28 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>43864.637372685182</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>43864.637372685182</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>43864.637384259258</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>43864.637384259258</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>43864.637384259258</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,118 +868,173 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D14" s="8">
-        <v>43864.637395833335</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D15" s="8">
-        <v>43864.637407407405</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>43864.637407407405</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>43864.637418981481</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>43864.637418981481</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
       <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,55 +1135,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964FAE33-6CD9-4087-B134-2594D9E9DD3D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>7.3700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1100,14 +1149,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0904079-205D-45A4-AC1C-11F8F03898FC}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,10 +1207,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8">
+        <v>43865.461342592593</v>
       </c>
       <c r="L2" s="5">
         <v>0.1</v>
@@ -1161,10 +1242,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8">
+        <v>43865.461354166669</v>
       </c>
       <c r="L3" s="5">
         <v>0.1</v>
@@ -1172,10 +1277,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="8">
+        <v>43865.461365740739</v>
       </c>
       <c r="L4" s="5">
         <v>0.1</v>
@@ -1183,10 +1312,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="8">
+        <v>43865.461388888885</v>
       </c>
       <c r="L5" s="5">
         <v>0.1</v>
@@ -1200,28 +1353,28 @@
         <v>19</v>
       </c>
       <c r="C6" s="7">
-        <v>7.8200000000000006E-2</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J6" s="8">
-        <v>43864.734155092592</v>
+        <v>43865.461458333331</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>24</v>
@@ -1238,31 +1391,31 @@
         <v>19</v>
       </c>
       <c r="C7" s="7">
-        <v>0.17749999999999999</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J7" s="8">
-        <v>43864.734363425923</v>
+        <v>43865.461585648147</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L7" s="5">
         <v>0.1</v>
@@ -1276,31 +1429,31 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>0.27710000000000001</v>
+        <v>0.26069999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J8" s="8">
-        <v>43864.734826388885</v>
+        <v>43865.461701388886</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5">
         <v>0.1</v>
@@ -1314,28 +1467,28 @@
         <v>19</v>
       </c>
       <c r="C9" s="7">
-        <v>3.8399999999999997E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J9" s="8">
-        <v>43864.729166666664</v>
+        <v>43865.461817129632</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>24</v>
@@ -1352,28 +1505,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J10" s="8">
-        <v>43864.729305555556</v>
+        <v>43865.46193287037</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>24</v>
@@ -1384,37 +1537,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>0.49790000000000001</v>
+        <v>0.49740000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J11" s="8">
-        <v>43864.729444444441</v>
+        <v>43865.462048611109</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L11" s="5">
         <v>0.1</v>
@@ -1422,44 +1575,144 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="8">
+        <v>43865.462106481478</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="8">
+        <v>43865.462129629632</v>
+      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="8">
+        <v>43865.462141203701</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="8">
+        <v>43865.462152777778</v>
+      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="5">
         <v>0.1</v>
       </c>
@@ -1472,28 +1725,28 @@
         <v>19</v>
       </c>
       <c r="C16" s="7">
-        <v>8.2500000000000004E-2</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J16" s="8">
-        <v>43864.729583333334</v>
+        <v>43865.462222222224</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>24</v>
@@ -1509,9 +1762,33 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
+      <c r="C17" s="7">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43865.462337962963</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="L17" s="5">
         <v>0.1</v>
       </c>
@@ -1523,9 +1800,33 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="7">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43865.462465277778</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="L18" s="5">
         <v>0.1</v>
       </c>
@@ -1537,9 +1838,33 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
+      <c r="C19" s="7">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="8">
+        <v>43865.462569444448</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="L19" s="5">
         <v>0.1</v>
       </c>
@@ -1551,359 +1876,430 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+      <c r="C20" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="8">
+        <v>43865.462685185186</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="L20" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
+      <c r="C21" s="7">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="8">
+        <v>43865.462800925925</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="L21" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="8"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="8"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="8"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="8"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C28" s="7"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="8"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="8"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="8"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="8"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="9"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
+      <c r="K41" s="8"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="8"/>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="8"/>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="8"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="8"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="10"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="10"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="9"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K52" s="8"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K53" s="8"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K54" s="8"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K55" s="8"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
+      <c r="K56" s="8"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
+      <c r="K57" s="8"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
+      <c r="K58" s="8"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="9"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="10"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K62" s="8"/>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="8"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K64" s="8"/>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K65" s="8"/>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="10"/>
+      <c r="K66" s="8"/>
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="10"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="10"/>
+      <c r="K68" s="8"/>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
+      <c r="K70" s="8"/>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="10"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K75" s="8"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="10"/>
+      <c r="K76" s="8"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="10"/>
+      <c r="K77" s="8"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="10"/>
+      <c r="K78" s="8"/>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
+      <c r="K79" s="8"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="9"/>
+      <c r="K80" s="8"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="10"/>
+      <c r="K81" s="8"/>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
       <c r="J86" s="8"/>
-      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="10"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="10"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
       <c r="J91" s="8"/>
-      <c r="K91" s="10"/>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="10"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
       <c r="J97" s="8"/>
-      <c r="K97" s="10"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
       <c r="J98" s="8"/>
-      <c r="K98" s="10"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
       <c r="J99" s="8"/>
-      <c r="K99" s="9"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
       <c r="J100" s="8"/>
-      <c r="K100" s="9"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3EE1CD-3A2C-49B6-8ED0-68156E5229B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AF0B2-43C1-4852-9ED3-06DF5ACABC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="14" r:id="rId3"/>
     <sheet name="Azure_Monitoring_Log" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -110,12 +111,246 @@
   </si>
   <si>
     <t>CrisplantDT</t>
+  </si>
+  <si>
+    <t>IFSDT</t>
+  </si>
+  <si>
+    <t>IFSPROD</t>
+  </si>
+  <si>
+    <t>imaxdev</t>
+  </si>
+  <si>
+    <t>RACQ</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NoRun</t>
+  </si>
+  <si>
+    <t>0.12 /s</t>
+  </si>
+  <si>
+    <t>4.36 /s</t>
+  </si>
+  <si>
+    <t>11.05 MB</t>
+  </si>
+  <si>
+    <t>29.06 MB</t>
+  </si>
+  <si>
+    <t>297.16 MB</t>
+  </si>
+  <si>
+    <t>67.72 MB</t>
+  </si>
+  <si>
+    <t>110.77 MB</t>
+  </si>
+  <si>
+    <t>67.75 MB</t>
+  </si>
+  <si>
+    <t>298.48 MB</t>
+  </si>
+  <si>
+    <t>31.47 MB</t>
+  </si>
+  <si>
+    <t>22.63 GB</t>
+  </si>
+  <si>
+    <t>87.17 GB</t>
+  </si>
+  <si>
+    <t>151.47 /s</t>
+  </si>
+  <si>
+    <t>360.48 /s</t>
+  </si>
+  <si>
+    <t>9.96 MB</t>
+  </si>
+  <si>
+    <t>7.01 MB</t>
+  </si>
+  <si>
+    <t>467.21 MB</t>
+  </si>
+  <si>
+    <t>811.51 MB</t>
+  </si>
+  <si>
+    <t>6.4 /s</t>
+  </si>
+  <si>
+    <t>16.18 /s</t>
+  </si>
+  <si>
+    <t>5.01 MB</t>
+  </si>
+  <si>
+    <t>7.05 MB</t>
+  </si>
+  <si>
+    <t>7.25 GB</t>
+  </si>
+  <si>
+    <t>490.46 MB</t>
+  </si>
+  <si>
+    <t>249.35 /s</t>
+  </si>
+  <si>
+    <t>10.64 /s</t>
+  </si>
+  <si>
+    <t>9.41 MB</t>
+  </si>
+  <si>
+    <t>401.18 MB</t>
+  </si>
+  <si>
+    <t>0.18 /s</t>
+  </si>
+  <si>
+    <t>2.47 /s</t>
+  </si>
+  <si>
+    <t>5.64 MB</t>
+  </si>
+  <si>
+    <t>19.04 MB</t>
+  </si>
+  <si>
+    <t>293.14 MB</t>
+  </si>
+  <si>
+    <t>441.25 MB</t>
+  </si>
+  <si>
+    <t>0.75 /s</t>
+  </si>
+  <si>
+    <t>3.2 /s</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>67.76 MB</t>
+  </si>
+  <si>
+    <t>110.83 MB</t>
+  </si>
+  <si>
+    <t>71.97 MB</t>
+  </si>
+  <si>
+    <t>303.03 MB</t>
+  </si>
+  <si>
+    <t>4.39 /s</t>
+  </si>
+  <si>
+    <t>11.06 MB</t>
+  </si>
+  <si>
+    <t>31.52 MB</t>
+  </si>
+  <si>
+    <t>22.62 GB</t>
+  </si>
+  <si>
+    <t>83.68 GB</t>
+  </si>
+  <si>
+    <t>151.24 /s</t>
+  </si>
+  <si>
+    <t>376.98 /s</t>
+  </si>
+  <si>
+    <t>9.95 MB</t>
+  </si>
+  <si>
+    <t>7 MB</t>
+  </si>
+  <si>
+    <t>474.95 MB</t>
+  </si>
+  <si>
+    <t>868.04 MB</t>
+  </si>
+  <si>
+    <t>6.47 /s</t>
+  </si>
+  <si>
+    <t>16.34 /s</t>
+  </si>
+  <si>
+    <t>7.06 MB</t>
+  </si>
+  <si>
+    <t>7.42 GB</t>
+  </si>
+  <si>
+    <t>497.31 MB</t>
+  </si>
+  <si>
+    <t>250.18 /s</t>
+  </si>
+  <si>
+    <t>10.63 /s</t>
+  </si>
+  <si>
+    <t>9.57 MB</t>
+  </si>
+  <si>
+    <t>29.23 MB</t>
+  </si>
+  <si>
+    <t>299.26 MB</t>
+  </si>
+  <si>
+    <t>458.52 MB</t>
+  </si>
+  <si>
+    <t>0.17 /s</t>
+  </si>
+  <si>
+    <t>2.46 /s</t>
+  </si>
+  <si>
+    <t>5.79 MB</t>
+  </si>
+  <si>
+    <t>19.17 MB</t>
+  </si>
+  <si>
+    <t>269.94 MB</t>
+  </si>
+  <si>
+    <t>439.06 MB</t>
+  </si>
+  <si>
+    <t>0.69 /s</t>
+  </si>
+  <si>
+    <t>3.19 /s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,7 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0FFFF"/>
+        <fgColor rgb="FFFFDAB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDA0DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -244,7 +491,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -268,7 +514,11 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,9 +546,1010 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Server_Name</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CP-FSM-DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CP-FSM-PROD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>crisplantdev</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CrisplantDT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crisplantfsmdev</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GosigerDev</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IFSDT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IFSPROD</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>imaxdev</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RACQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43865.722592592596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DCA-461B-A7FA-6AA17FAB978C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CP-FSM-DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CP-FSM-PROD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>crisplantdev</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CrisplantDT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crisplantfsmdev</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GosigerDev</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IFSDT</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IFSPROD</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>imaxdev</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RACQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43865.718055555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43865.718078703707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43865.718101851853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865.718819444446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43865.718819444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43865.718819444446</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43865.718819444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43865.719641203701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43865.719756944447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43865.719884259262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DCA-461B-A7FA-6AA17FAB978C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="492416040"/>
+        <c:axId val="492411120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="492416040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492411120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492411120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="99000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492416040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B9D8FC-10C5-45E6-994F-8EFBCD4B12C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{715A8EF6-A505-4210-B066-D832C9256031}" name="Table1" displayName="Table1" ref="A1:L70" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:L70" xr:uid="{55C6404D-BE9A-4778-95AA-177B65E9707E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{715A8EF6-A505-4210-B066-D832C9256031}" name="Table1" displayName="Table1" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L1048576" xr:uid="{55C6404D-BE9A-4778-95AA-177B65E9707E}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{9A7B1D62-DD64-4DB1-B5F6-3158A1BFBBD2}" name="Server_Name"/>
     <tableColumn id="2" xr3:uid="{E38D28C9-32E7-42D2-8010-278DF4ACA222}" name="Server_Status"/>
@@ -592,250 +1843,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>43865.548935185187</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>43865.548946759256</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>43865.548946759256</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>43865.548946759256</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>43865.548958333333</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="22">
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="20"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="20"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="20"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="7"/>
@@ -974,106 +2225,106 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="20">
+      <c r="C2" s="9"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="22">
+      <c r="C3" s="10"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="20">
+      <c r="C4" s="9"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="22">
+      <c r="C5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="20">
+      <c r="C6" s="22"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="22">
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -1162,22 +2413,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0904079-205D-45A4-AC1C-11F8F03898FC}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
@@ -1221,429 +2474,968 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J2" s="8"/>
-      <c r="K2" s="27"/>
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="8">
+        <v>43865.718055555553</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J3" s="8"/>
-      <c r="K3" s="27"/>
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="8">
+        <v>43865.718078703707</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J4" s="8"/>
-      <c r="K4" s="27"/>
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="8">
+        <v>43865.718101851853</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L4" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J5" s="8"/>
-      <c r="K5" s="27"/>
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8">
+        <v>43865.718124999999</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L5" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8">
+        <v>43865.718217592592</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="7">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="8">
+        <v>43865.7184375</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="L7" s="7">
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43865.718576388892</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="L8" s="7">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="8">
+        <v>43865.719641203701</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="7">
-        <v>4.1099999999999998E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43865.719756944447</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="L10" s="7">
-        <v>7.9000000000000008E-3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.498</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="8">
+        <v>43865.719884259262</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="L11" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="8">
+        <v>43865.720023148147</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
-    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="8">
+        <v>43865.720046296294</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="8">
+        <v>43865.720069444447</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="8">
+        <v>43865.720081018517</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K21" s="8"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="8"/>
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.1618</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="8">
+        <v>43865.72016203704</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.2606</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8">
+        <v>43865.720277777778</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43865.720405092594</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="8">
+        <v>43865.720509259256</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="8">
+        <v>43865.720636574071</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="8">
+        <v>43865.720752314817</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22"/>
+      <c r="J22" s="8"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K23" s="8"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="J23" s="8"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="8"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="J24" s="8"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K31" s="8"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J31" s="8"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K32" s="8"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="J32" s="8"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K33" s="8"/>
+      <c r="C33"/>
+      <c r="J33" s="8"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="8"/>
+      <c r="C34"/>
+      <c r="J34" s="8"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="8"/>
+      <c r="J41" s="8"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="8"/>
+      <c r="C42"/>
+      <c r="J42"/>
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="8"/>
+      <c r="C43"/>
+      <c r="J43"/>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="8"/>
+      <c r="C44"/>
+      <c r="J44"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="8"/>
+      <c r="C51"/>
+      <c r="J51"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K52" s="8"/>
+      <c r="C52"/>
+      <c r="J52"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K53" s="8"/>
+      <c r="C53"/>
+      <c r="J53"/>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K54" s="8"/>
+      <c r="C54"/>
+      <c r="J54"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K61" s="8"/>
+      <c r="C61"/>
+      <c r="J61"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K62" s="8"/>
+      <c r="C62"/>
+      <c r="J62"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K63" s="8"/>
+      <c r="C63"/>
+      <c r="J63"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="7"/>
+      <c r="C64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="7"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="7"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="7"/>
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="7"/>
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="7"/>
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="7"/>
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-      <c r="J90" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,6 +3447,194 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BFCA1F-0F7C-4FE5-BAEE-110479A146CC}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43865.718055555553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20">
+        <v>43865.718078703707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43865.718101851853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="20">
+        <v>43865.718819444446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="20">
+        <v>43865.718819444446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20">
+        <v>43865.718819444446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="20">
+        <v>43865.718819444446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43865.719641203701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43865.719756944447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="20">
+        <v>43865.719884259262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="18">
+        <v>43865.720717592594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43865.720717592594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43865.720717592594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43865.720717592594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18">
+        <v>43865.720856481479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18">
+        <v>43865.720856481479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="18">
+        <v>43865.720856481479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="20">
+        <v>43865.722592592596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20">
+        <v>43865.722592592596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="20">
+        <v>43865.722592592596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangeetha.a\Documents\UiPath\TransactionalPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE30CD-B222-4A5F-AE6B-F164D74744D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E3D305-6A66-421B-93F7-05A38E5898B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigDetails" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="137">
   <si>
     <t>Server_Name</t>
   </si>
@@ -150,211 +150,298 @@
     <t>NoRun</t>
   </si>
   <si>
-    <t>0.13 /s</t>
+    <t>0.04 /s</t>
   </si>
   <si>
     <t>Fine</t>
   </si>
   <si>
-    <t>8.63 MB</t>
-  </si>
-  <si>
-    <t>28.59 MB</t>
-  </si>
-  <si>
-    <t>16.19 /s</t>
-  </si>
-  <si>
-    <t>76.76 MB</t>
-  </si>
-  <si>
-    <t>108.25 MB</t>
-  </si>
-  <si>
-    <t>61.39 MB</t>
-  </si>
-  <si>
-    <t>316.97 MB</t>
-  </si>
-  <si>
-    <t>4.51 /s</t>
-  </si>
-  <si>
-    <t>16.06 GB</t>
-  </si>
-  <si>
-    <t>79.36 GB</t>
-  </si>
-  <si>
-    <t>82.96 /s</t>
-  </si>
-  <si>
-    <t>424.04 /s</t>
-  </si>
-  <si>
-    <t>6.05 MB</t>
-  </si>
-  <si>
-    <t>3.72 MB</t>
-  </si>
-  <si>
-    <t>451.79 MB</t>
-  </si>
-  <si>
-    <t>811.57 MB</t>
-  </si>
-  <si>
-    <t>6.29 /s</t>
-  </si>
-  <si>
-    <t>16.18 /s</t>
-  </si>
-  <si>
-    <t>7.03 MB</t>
-  </si>
-  <si>
-    <t>16.8 MB</t>
-  </si>
-  <si>
-    <t>8.73 GB</t>
-  </si>
-  <si>
-    <t>482.13 MB</t>
-  </si>
-  <si>
-    <t>295.38 /s</t>
-  </si>
-  <si>
-    <t>10.71 /s</t>
-  </si>
-  <si>
-    <t>11.43 MB</t>
-  </si>
-  <si>
-    <t>31.43 MB</t>
-  </si>
-  <si>
-    <t>312.13 MB</t>
-  </si>
-  <si>
-    <t>535.64 MB</t>
-  </si>
-  <si>
     <t>0.18 /s</t>
   </si>
   <si>
+    <t>3.62 MB</t>
+  </si>
+  <si>
+    <t>16.83 MB</t>
+  </si>
+  <si>
+    <t>291.07 MB</t>
+  </si>
+  <si>
+    <t>424.98 MB</t>
+  </si>
+  <si>
+    <t>0.72 /s</t>
+  </si>
+  <si>
     <t>2.96 /s</t>
   </si>
   <si>
-    <t>3.41 MB</t>
-  </si>
-  <si>
-    <t>16.41 MB</t>
-  </si>
-  <si>
-    <t>298.94 MB</t>
-  </si>
-  <si>
-    <t>357.83 MB</t>
-  </si>
-  <si>
-    <t>0.75 /s</t>
-  </si>
-  <si>
-    <t>2.8 /s</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>79.51 MB</t>
-  </si>
-  <si>
-    <t>109.41 MB</t>
-  </si>
-  <si>
-    <t>61.4 MB</t>
-  </si>
-  <si>
-    <t>317.48 MB</t>
-  </si>
-  <si>
-    <t>4.53 /s</t>
-  </si>
-  <si>
-    <t>28.45 MB</t>
-  </si>
-  <si>
-    <t>17.66 GB</t>
-  </si>
-  <si>
-    <t>80.86 GB</t>
-  </si>
-  <si>
-    <t>89.86 /s</t>
-  </si>
-  <si>
-    <t>418.36 /s</t>
-  </si>
-  <si>
-    <t>6.06 MB</t>
-  </si>
-  <si>
-    <t>3.73 MB</t>
-  </si>
-  <si>
-    <t>458.47 MB</t>
-  </si>
-  <si>
-    <t>815.36 MB</t>
-  </si>
-  <si>
-    <t>6.3 /s</t>
-  </si>
-  <si>
-    <t>7.17 MB</t>
-  </si>
-  <si>
-    <t>17.16 MB</t>
-  </si>
-  <si>
-    <t>8.72 GB</t>
-  </si>
-  <si>
-    <t>482.08 MB</t>
-  </si>
-  <si>
-    <t>299.19 /s</t>
-  </si>
-  <si>
-    <t>10.66 /s</t>
-  </si>
-  <si>
-    <t>11.44 MB</t>
-  </si>
-  <si>
-    <t>31.44 MB</t>
-  </si>
-  <si>
-    <t>286.96 MB</t>
-  </si>
-  <si>
-    <t>532.96 MB</t>
-  </si>
-  <si>
-    <t>0.16 /s</t>
-  </si>
-  <si>
-    <t>2.95 /s</t>
-  </si>
-  <si>
-    <t>275.71 MB</t>
-  </si>
-  <si>
-    <t>356.74 MB</t>
-  </si>
-  <si>
-    <t>0.69 /s</t>
+    <t>15.97 MB</t>
+  </si>
+  <si>
+    <t>60.09 MB</t>
+  </si>
+  <si>
+    <t>47.81 MB</t>
+  </si>
+  <si>
+    <t>285.03 MB</t>
+  </si>
+  <si>
+    <t>3.68 /s</t>
+  </si>
+  <si>
+    <t>9.59 MB</t>
+  </si>
+  <si>
+    <t>29.99 MB</t>
+  </si>
+  <si>
+    <t>20.97 GB</t>
+  </si>
+  <si>
+    <t>81.26 GB</t>
+  </si>
+  <si>
+    <t>144.96 /s</t>
+  </si>
+  <si>
+    <t>436.99 /s</t>
+  </si>
+  <si>
+    <t>4.73 MB</t>
+  </si>
+  <si>
+    <t>3.98 MB</t>
+  </si>
+  <si>
+    <t>445.49 MB</t>
+  </si>
+  <si>
+    <t>763.2 MB</t>
+  </si>
+  <si>
+    <t>6 /s</t>
+  </si>
+  <si>
+    <t>16.28 /s</t>
+  </si>
+  <si>
+    <t>7.65 MB</t>
+  </si>
+  <si>
+    <t>14.32 MB</t>
+  </si>
+  <si>
+    <t>7.54 GB</t>
+  </si>
+  <si>
+    <t>510.48 MB</t>
+  </si>
+  <si>
+    <t>257.55 /s</t>
+  </si>
+  <si>
+    <t>11.09 /s</t>
+  </si>
+  <si>
+    <t>11.31 MB</t>
+  </si>
+  <si>
+    <t>31.21 MB</t>
+  </si>
+  <si>
+    <t>299.29 MB</t>
+  </si>
+  <si>
+    <t>536.55 MB</t>
+  </si>
+  <si>
+    <t>0.19 /s</t>
+  </si>
+  <si>
+    <t>2.99 /s</t>
+  </si>
+  <si>
+    <t>3.58 MB</t>
+  </si>
+  <si>
+    <t>16.7 MB</t>
+  </si>
+  <si>
+    <t>265.77 MB</t>
+  </si>
+  <si>
+    <t>421.54 MB</t>
+  </si>
+  <si>
+    <t>0.68 /s</t>
+  </si>
+  <si>
+    <t>2.94 /s</t>
+  </si>
+  <si>
+    <t>16 MB</t>
+  </si>
+  <si>
+    <t>60.13 MB</t>
+  </si>
+  <si>
+    <t>44.66 MB</t>
+  </si>
+  <si>
+    <t>284.2 MB</t>
+  </si>
+  <si>
+    <t>3.67 /s</t>
+  </si>
+  <si>
+    <t>9.6 MB</t>
+  </si>
+  <si>
+    <t>30 MB</t>
+  </si>
+  <si>
+    <t>22.15 GB</t>
+  </si>
+  <si>
+    <t>81.6 GB</t>
+  </si>
+  <si>
+    <t>149.9 /s</t>
+  </si>
+  <si>
+    <t>433.28 /s</t>
+  </si>
+  <si>
+    <t>4.74 MB</t>
+  </si>
+  <si>
+    <t>4.02 MB</t>
+  </si>
+  <si>
+    <t>440.91 MB</t>
+  </si>
+  <si>
+    <t>763.97 MB</t>
+  </si>
+  <si>
+    <t>5.96 /s</t>
+  </si>
+  <si>
+    <t>16.31 /s</t>
+  </si>
+  <si>
+    <t>7.84 MB</t>
+  </si>
+  <si>
+    <t>15.18 MB</t>
+  </si>
+  <si>
+    <t>7.87 GB</t>
+  </si>
+  <si>
+    <t>516.95 MB</t>
+  </si>
+  <si>
+    <t>260.26 /s</t>
+  </si>
+  <si>
+    <t>11.16 /s</t>
+  </si>
+  <si>
+    <t>11.28 MB</t>
+  </si>
+  <si>
+    <t>31.17 MB</t>
+  </si>
+  <si>
+    <t>535.59 MB</t>
+  </si>
+  <si>
+    <t>3.57 MB</t>
+  </si>
+  <si>
+    <t>16.73 MB</t>
+  </si>
+  <si>
+    <t>289 MB</t>
+  </si>
+  <si>
+    <t>417.03 MB</t>
+  </si>
+  <si>
+    <t>15.99 MB</t>
+  </si>
+  <si>
+    <t>60.11 MB</t>
+  </si>
+  <si>
+    <t>282.07 MB</t>
+  </si>
+  <si>
+    <t>9.58 MB</t>
+  </si>
+  <si>
+    <t>22.56 GB</t>
+  </si>
+  <si>
+    <t>82.62 GB</t>
+  </si>
+  <si>
+    <t>151.67 /s</t>
+  </si>
+  <si>
+    <t>430.59 /s</t>
+  </si>
+  <si>
+    <t>4.77 MB</t>
+  </si>
+  <si>
+    <t>4.07 MB</t>
+  </si>
+  <si>
+    <t>446.05 MB</t>
+  </si>
+  <si>
+    <t>768.58 MB</t>
+  </si>
+  <si>
+    <t>5.97 /s</t>
+  </si>
+  <si>
+    <t>16.35 /s</t>
+  </si>
+  <si>
+    <t>8.01 MB</t>
+  </si>
+  <si>
+    <t>16.04 MB</t>
+  </si>
+  <si>
+    <t>7.91 GB</t>
+  </si>
+  <si>
+    <t>521.85 MB</t>
+  </si>
+  <si>
+    <t>264.28 /s</t>
+  </si>
+  <si>
+    <t>11.18 /s</t>
+  </si>
+  <si>
+    <t>11.13 MB</t>
+  </si>
+  <si>
+    <t>31.01 MB</t>
+  </si>
+  <si>
+    <t>520.65 MB</t>
   </si>
 </sst>
 </file>
@@ -441,7 +528,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -601,7 +691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Checked At</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -707,7 +797,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>CPU Utilization</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -815,7 +905,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Checked At</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -921,7 +1011,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>CPU Utilization</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1029,7 +1119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Checked At</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1085,7 +1175,7 @@
             <c:numRef>
               <c:f>[2]Sheet6!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43865.993761574071</c:v>
@@ -1135,7 +1225,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>CPU Utilization</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1207,22 +1297,22 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00%">
+                <c:pt idx="4">
                   <c:v>9.2799999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00%">
+                <c:pt idx="5">
                   <c:v>0.1772</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="6">
                   <c:v>0.29870000000000002</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>7.4499999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.49399999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1243,7 +1333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Checked At</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1389,7 +1479,7 @@
             <c:numRef>
               <c:f>[2]Sheet6!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43865.993761574071</c:v>
@@ -1456,7 +1546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>CPU Utilization</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1529,22 +1619,22 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00%">
+                <c:pt idx="4">
                   <c:v>9.2799999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00%">
+                <c:pt idx="5">
                   <c:v>0.1772</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00%">
+                <c:pt idx="6">
                   <c:v>0.29870000000000002</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00%">
+                <c:pt idx="7">
                   <c:v>7.4499999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00%">
+                <c:pt idx="8">
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0.00%">
+                <c:pt idx="9">
                   <c:v>0.49399999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2449,29 +2539,158 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Azure_Monitoring_Log"/>
       <sheetName val="Sheet6"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Checked At</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>CPU Utilization</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>CP-FSM-DT</v>
+          </cell>
+          <cell r="B2">
+            <v>43865.993761574071</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>NA</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>CP-FSM-PROD</v>
+          </cell>
+          <cell r="B3">
+            <v>43865.993784722225</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>NA</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>crisplantdev</v>
+          </cell>
+          <cell r="B4">
+            <v>43865.993807870371</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NA</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>CrisplantDT</v>
+          </cell>
+          <cell r="B5">
+            <v>43865.993831018517</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>NA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Crisplantfsmdev</v>
+          </cell>
+          <cell r="B6">
+            <v>43865.993923611109</v>
+          </cell>
+          <cell r="C6">
+            <v>9.2799999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>GosigerDev</v>
+          </cell>
+          <cell r="B7">
+            <v>43865.994062500002</v>
+          </cell>
+          <cell r="C7">
+            <v>0.1772</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>IFSDT</v>
+          </cell>
+          <cell r="B8">
+            <v>43865.99417824074</v>
+          </cell>
+          <cell r="C8">
+            <v>0.29870000000000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>IFSPROD</v>
+          </cell>
+          <cell r="B9">
+            <v>43865.994293981479</v>
+          </cell>
+          <cell r="C9">
+            <v>7.4499999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>imaxdev</v>
+          </cell>
+          <cell r="B10">
+            <v>43865.994421296295</v>
+          </cell>
+          <cell r="C10">
+            <v>8.9999999999999993E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>RACQ</v>
+          </cell>
+          <cell r="B11">
+            <v>43865.994537037041</v>
+          </cell>
+          <cell r="C11">
+            <v>0.49399999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41233335-751E-478E-A8C5-F0F1B4F595FD}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41233335-751E-478E-A8C5-F0F1B4F595FD}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:C6" xr:uid="{DB933A70-64A7-4067-9F07-35584634C241}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2556410-A170-48F6-A37A-0DA5C3F85DD4}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5E58E73E-24BC-416F-9369-79F69C023451}" name="Value" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20BBD8BE-8318-4054-8E23-78598289DF57}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F2556410-A170-48F6-A37A-0DA5C3F85DD4}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5E58E73E-24BC-416F-9369-79F69C023451}" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20BBD8BE-8318-4054-8E23-78598289DF57}" name="Description" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28287DCC-A274-410B-8075-50922AC72A39}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{28287DCC-A274-410B-8075-50922AC72A39}" name="LiveLog" displayName="LiveLog" ref="A1:L41" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:L41" xr:uid="{82B557F5-E89E-420C-B151-76AB7B00E4FE}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6C5F1076-5925-470C-AD31-D3A0CFBB342A}" name="Server_Name"/>
@@ -2484,8 +2703,20 @@
     <tableColumn id="8" xr3:uid="{F96317E9-321C-494E-9656-80C4D0D9BDF8}" name="Disk Operation_Read value"/>
     <tableColumn id="9" xr3:uid="{FEE37DAE-8883-43A1-99FA-B220669F73D1}" name="Disk Operation_Write value"/>
     <tableColumn id="10" xr3:uid="{31735254-7C68-409D-86EC-723E32EB4C06}" name="Checked At"/>
-    <tableColumn id="11" xr3:uid="{69D206E0-7DF4-461D-BED7-4DAFC4710762}" name="Status" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{8403B875-F595-43D9-B146-AB5E68D42CF3}" name="Threshold_Limit" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{69D206E0-7DF4-461D-BED7-4DAFC4710762}" name="Status" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{8403B875-F595-43D9-B146-AB5E68D42CF3}" name="Threshold_Limit" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51E47534-A05E-4B38-A096-45E63A286070}" name="Data" displayName="Data" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{3CAA7BDB-5C41-4239-BCAC-0E6D19DA7D64}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4276CC14-54BB-45A1-B612-96D095F83ED9}" name="Server_Name"/>
+    <tableColumn id="2" xr3:uid="{98D9F32C-F6F8-4E21-892B-01E0C86EDC96}" name="Checked At" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B8E3443D-8860-4974-8F5A-02971817FB4B}" name="CPU Utilization"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2757,7 +2988,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +3036,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2814,7 +3045,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="6">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -2845,7 +3076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2929,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="8">
-        <v>43866.745682870373</v>
+        <v>43867.522627314815</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>38</v>
@@ -2967,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="8">
-        <v>43866.745706018519</v>
+        <v>43867.522638888891</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>38</v>
@@ -3005,7 +3238,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="8">
-        <v>43866.745729166665</v>
+        <v>43867.522662037038</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>38</v>
@@ -3043,7 +3276,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="8">
-        <v>43866.745740740742</v>
+        <v>43867.522673611114</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>38</v>
@@ -3060,28 +3293,28 @@
         <v>37</v>
       </c>
       <c r="C6" s="5">
-        <v>0.2445</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J6" s="8">
-        <v>43866.745868055557</v>
+        <v>43867.522766203707</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>40</v>
@@ -3098,28 +3331,28 @@
         <v>37</v>
       </c>
       <c r="C7" s="5">
-        <v>0.19439999999999999</v>
+        <v>0.1769</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J7" s="8">
-        <v>43866.746018518519</v>
+        <v>43867.522881944446</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>40</v>
@@ -3136,28 +3369,28 @@
         <v>37</v>
       </c>
       <c r="C8" s="5">
-        <v>0.27950000000000003</v>
+        <v>0.26910000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J8" s="8">
-        <v>43866.746157407404</v>
+        <v>43867.522997685184</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>40</v>
@@ -3174,28 +3407,28 @@
         <v>37</v>
       </c>
       <c r="C9" s="5">
-        <v>5.91E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J9" s="8">
-        <v>43866.746296296296</v>
+        <v>43867.523101851853</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>40</v>
@@ -3212,28 +3445,28 @@
         <v>37</v>
       </c>
       <c r="C10" s="5">
-        <v>9.4000000000000004E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J10" s="8">
-        <v>43866.746435185189</v>
+        <v>43867.523217592592</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>40</v>
@@ -3250,31 +3483,31 @@
         <v>37</v>
       </c>
       <c r="C11" s="5">
-        <v>0.49590000000000001</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J11" s="8">
-        <v>43866.746574074074</v>
+        <v>43867.523321759261</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L11" s="5">
         <v>0.35</v>
@@ -3309,7 +3542,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="8">
-        <v>43866.746736111112</v>
+        <v>43867.5233912037</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>38</v>
@@ -3347,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="8">
-        <v>43866.746759259258</v>
+        <v>43867.523414351854</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>38</v>
@@ -3385,7 +3618,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="8">
-        <v>43866.746770833335</v>
+        <v>43867.523425925923</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>38</v>
@@ -3423,7 +3656,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="8">
-        <v>43866.746782407405</v>
+        <v>43867.523449074077</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>38</v>
@@ -3440,28 +3673,28 @@
         <v>37</v>
       </c>
       <c r="C16" s="5">
-        <v>0.25280000000000002</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J16" s="8">
-        <v>43866.746886574074</v>
+        <v>43867.523530092592</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>40</v>
@@ -3478,28 +3711,28 @@
         <v>37</v>
       </c>
       <c r="C17" s="5">
-        <v>0.1966</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J17" s="8">
-        <v>43866.747025462966</v>
+        <v>43867.523645833331</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>40</v>
@@ -3516,28 +3749,28 @@
         <v>37</v>
       </c>
       <c r="C18" s="5">
-        <v>0.27950000000000003</v>
+        <v>0.26889999999999997</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="J18" s="8">
-        <v>43866.747141203705</v>
+        <v>43867.52375</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>40</v>
@@ -3554,28 +3787,28 @@
         <v>37</v>
       </c>
       <c r="C19" s="5">
-        <v>5.8400000000000001E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J19" s="8">
-        <v>43866.74728009259</v>
+        <v>43867.523865740739</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>40</v>
@@ -3592,28 +3825,28 @@
         <v>37</v>
       </c>
       <c r="C20" s="5">
-        <v>9.5999999999999992E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J20" s="8">
-        <v>43866.747407407405</v>
+        <v>43867.523981481485</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>40</v>
@@ -3630,175 +3863,415 @@
         <v>37</v>
       </c>
       <c r="C21" s="5">
-        <v>0.49590000000000001</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J21" s="8">
-        <v>43866.747534722221</v>
+        <v>43867.524097222224</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L21" s="5">
         <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="8">
+        <v>43867.524155092593</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="8">
+        <v>43867.524178240739</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8">
+        <v>43867.524189814816</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="5"/>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="8">
+        <v>43867.524212962962</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="8">
+        <v>43867.524282407408</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="5"/>
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="8">
+        <v>43867.524386574078</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="8">
+        <v>43867.524502314816</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="8">
+        <v>43867.524606481478</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="8">
+        <v>43867.524733796294</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="5"/>
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="8">
+        <v>43984.51458333333</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J32" s="8"/>
@@ -3868,13 +4341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119C7F61-B6DC-4E96-B304-BF234C6CC194}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8">
-        <v>43866.745682870373</v>
+        <v>43867.522627314815</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -3904,7 +4379,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8">
-        <v>43866.745706018519</v>
+        <v>43867.522638888891</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3915,7 +4390,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8">
-        <v>43866.745729166665</v>
+        <v>43867.522662037038</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -3926,7 +4401,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8">
-        <v>43866.745740740742</v>
+        <v>43867.522673611114</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -3937,10 +4412,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>43866.745868055557</v>
+        <v>43867.522766203707</v>
       </c>
       <c r="C6">
-        <v>0.2445</v>
+        <v>7.7700000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +4423,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="8">
-        <v>43866.746018518519</v>
+        <v>43867.522881944446</v>
       </c>
       <c r="C7">
-        <v>0.19439999999999999</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +4434,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="8">
-        <v>43866.746157407404</v>
+        <v>43867.522997685184</v>
       </c>
       <c r="C8">
-        <v>0.27950000000000003</v>
+        <v>0.26910000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +4445,10 @@
         <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>43866.746296296296</v>
+        <v>43867.523101851853</v>
       </c>
       <c r="C9">
-        <v>5.91E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +4456,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="8">
-        <v>43866.746435185189</v>
+        <v>43867.523217592592</v>
       </c>
       <c r="C10">
-        <v>9.4000000000000004E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +4467,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="8">
-        <v>43866.746574074074</v>
+        <v>43867.523321759261</v>
       </c>
       <c r="C11">
-        <v>0.49590000000000001</v>
+        <v>0.49759999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,7 +4478,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="8">
-        <v>43866.746736111112</v>
+        <v>43867.5233912037</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -4014,7 +4489,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="8">
-        <v>43866.746759259258</v>
+        <v>43867.523414351854</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -4025,7 +4500,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="8">
-        <v>43866.746770833335</v>
+        <v>43867.523425925923</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -4036,7 +4511,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="8">
-        <v>43866.746782407405</v>
+        <v>43867.523449074077</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -4047,10 +4522,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="8">
-        <v>43866.746886574074</v>
+        <v>43867.523530092592</v>
       </c>
       <c r="C16">
-        <v>0.25280000000000002</v>
+        <v>8.5500000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,10 +4533,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="8">
-        <v>43866.747025462966</v>
+        <v>43867.523645833331</v>
       </c>
       <c r="C17">
-        <v>0.1966</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,10 +4544,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="8">
-        <v>43866.747141203705</v>
+        <v>43867.52375</v>
       </c>
       <c r="C18">
-        <v>0.27950000000000003</v>
+        <v>0.26889999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4080,10 +4555,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>43866.74728009259</v>
+        <v>43867.523865740739</v>
       </c>
       <c r="C19">
-        <v>5.8400000000000001E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4091,10 +4566,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="8">
-        <v>43866.747407407405</v>
+        <v>43867.523981481485</v>
       </c>
       <c r="C20">
-        <v>9.5999999999999992E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4102,10 +4577,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="8">
-        <v>43866.747534722221</v>
+        <v>43867.524097222224</v>
       </c>
       <c r="C21">
-        <v>0.49590000000000001</v>
+        <v>0.49759999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,5 +4806,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>